--- a/S50Target_sequence_config.xlsx
+++ b/S50Target_sequence_config.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
   <si>
     <t xml:space="preserve">NAME</t>
   </si>
@@ -76,7 +76,10 @@
     <t xml:space="preserve">Minend</t>
   </si>
   <si>
-    <t xml:space="preserve">M63</t>
+    <t xml:space="preserve">Shutdown After Target</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M81</t>
   </si>
   <si>
     <t xml:space="preserve">True</t>
@@ -85,18 +88,31 @@
     <t xml:space="preserve">False</t>
   </si>
   <si>
-    <t xml:space="preserve">M97</t>
+    <t xml:space="preserve">M 97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC 7023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IC 63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">²</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="&quot;VRAI&quot;;&quot;VRAI&quot;;&quot;FAUX&quot;"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -117,6 +133,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -178,15 +201,39 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,10 +360,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1048576"/>
+  <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="O2" activeCellId="0" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -376,120 +423,350 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="4" t="n">
-        <v>13.2816</v>
-      </c>
-      <c r="C2" s="4" t="n">
-        <v>41.905</v>
-      </c>
-      <c r="D2" s="5" t="s">
+    </row>
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="4" t="n">
+      <c r="B2" s="6" t="n">
+        <v>9.95888888888889</v>
+      </c>
+      <c r="C2" s="6" t="n">
+        <v>68.9505555555556</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N2" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q2" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="R2" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="true" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <v>54.8861111111111</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="8" t="n">
         <v>25000</v>
       </c>
-      <c r="F2" s="4" t="n">
+      <c r="F3" s="8" t="n">
         <v>12</v>
       </c>
-      <c r="G2" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H2" s="4" t="n">
+      <c r="G3" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="H3" s="8" t="n">
+        <v>80</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="8" t="n">
         <v>100</v>
       </c>
-      <c r="I2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="4" t="n">
+      <c r="L3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N3" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="P3" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="10" t="n">
+        <v>21.0313888888889</v>
+      </c>
+      <c r="C4" s="10" t="n">
+        <v>68.2663888888889</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="10" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F4" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="0" t="n">
+      <c r="L4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O4" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="R4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="6" t="n">
-        <v>12.103</v>
-      </c>
-      <c r="C3" s="6" t="n">
-        <v>54.8864</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="6" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F3" s="6" t="n">
+      <c r="S4" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="6" t="n">
+        <v>9.95888888888889</v>
+      </c>
+      <c r="C5" s="6" t="n">
+        <v>68.9505555555556</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" s="6" t="n">
+      <c r="G5" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" s="6" t="n">
+      <c r="L5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="n">
+        <v>1.01639</v>
+      </c>
+      <c r="C6" s="11" t="n">
+        <v>61.0425</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10" t="n">
+        <v>25000</v>
+      </c>
+      <c r="F6" s="10" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="10" t="n">
         <v>100</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="L6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="N6" s="11" t="n">
+        <v>3</v>
+      </c>
+      <c r="O6" s="11" t="n">
+        <v>31</v>
+      </c>
+      <c r="P6" s="11" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" s="11" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="S6" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H18" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
